--- a/db/excel/oracle-inovation-manager-ver-1.0.xlsx
+++ b/db/excel/oracle-inovation-manager-ver-1.0.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NODEJS\m-inovation\db\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA6A7C-9C65-4BFE-8276-E11724C7AEC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="200" windowWidth="13560" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="13" state="hidden" r:id="rId2"/>
     <sheet name="admin_menu" sheetId="12" state="hidden" r:id="rId3"/>
-    <sheet name="admin_functions" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="admin_functions" sheetId="9" r:id="rId4"/>
     <sheet name="admin_group" sheetId="14" state="hidden" r:id="rId5"/>
     <sheet name="admin_roles" sheetId="15" state="hidden" r:id="rId6"/>
     <sheet name="organizations" sheetId="11" state="hidden" r:id="rId7"/>
@@ -21,18 +27,12 @@
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$174</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="468">
   <si>
     <t>table_name</t>
   </si>
@@ -995,9 +995,6 @@
     <t>Hiển thị nhóm</t>
   </si>
   <si>
-    <t>admin_group_id</t>
-  </si>
-  <si>
     <t>Thêm kiểu nội dung</t>
   </si>
   <si>
@@ -1406,9 +1403,6 @@
     <t>, PRIMARY KEY(id)</t>
   </si>
   <si>
-    <t>default 1,  PRIMARY KEY(id), unique(username), FOREIGN KEY (role) REFERENCES user_role(id)</t>
-  </si>
-  <si>
     <t>Vai trò - 0 = guest, 1= user, 99 = developper, 98= admin</t>
   </si>
   <si>
@@ -1431,13 +1425,34 @@
   </si>
   <si>
     <t>Người phát triển</t>
+  </si>
+  <si>
+    <t>User thường</t>
+  </si>
+  <si>
+    <t>Chủ tịch hội đồng KHCN</t>
+  </si>
+  <si>
+    <t>Thành viên Hội đồng KHCN</t>
+  </si>
+  <si>
+    <t>font_size</t>
+  </si>
+  <si>
+    <t>default 1,  PRIMARY KEY(id), unique(username), FOREIGN KEY (role) REFERENCES user_roles(id)</t>
+  </si>
+  <si>
+    <t>Nhóm quyền được phân rã</t>
+  </si>
+  <si>
+    <t>group_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1605,26 +1620,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFCE9178"/>
-      <name val="Monaco"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Monaco"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Monaco"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="29">
@@ -1966,7 +1983,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,39 +2249,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,12 +2260,52 @@
     <xf numFmtId="0" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="128">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2815,23 +2839,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="34" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="105" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="105" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" s="90" customFormat="1">
@@ -3885,8 +3909,8 @@
       <c r="C2" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="107" t="s">
-        <v>400</v>
+      <c r="D2" s="113" t="s">
+        <v>399</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
@@ -3906,8 +3930,8 @@
       <c r="C3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="107" t="s">
-        <v>400</v>
+      <c r="D3" s="113" t="s">
+        <v>399</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -3915,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="36">
+    <row r="4" spans="1:1025" ht="37.5">
       <c r="A4" s="78" t="s">
         <v>42</v>
       </c>
@@ -3925,8 +3949,8 @@
       <c r="C4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="107" t="s">
-        <v>408</v>
+      <c r="D4" s="113" t="s">
+        <v>407</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -3934,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="36">
+    <row r="5" spans="1:1025" ht="56.25">
       <c r="A5" s="78" t="s">
         <v>42</v>
       </c>
@@ -3944,8 +3968,8 @@
       <c r="C5" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="107" t="s">
-        <v>409</v>
+      <c r="D5" s="113" t="s">
+        <v>408</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
@@ -3953,7 +3977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="54">
+    <row r="6" spans="1:1025" ht="93.75">
       <c r="A6" s="78" t="s">
         <v>42</v>
       </c>
@@ -3963,7 +3987,7 @@
       <c r="C6" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="113" t="s">
         <v>199</v>
       </c>
       <c r="E6" s="12"/>
@@ -3972,7 +3996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="36">
+    <row r="7" spans="1:1025" ht="37.5">
       <c r="A7" s="78" t="s">
         <v>42</v>
       </c>
@@ -3982,8 +4006,8 @@
       <c r="C7" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="107" t="s">
-        <v>409</v>
+      <c r="D7" s="113" t="s">
+        <v>408</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -3991,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1025">
+    <row r="8" spans="1:1025" ht="37.5">
       <c r="A8" s="78" t="s">
         <v>42</v>
       </c>
@@ -4001,7 +4025,7 @@
       <c r="C8" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="114" t="s">
         <v>200</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -4012,7 +4036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="36">
+    <row r="9" spans="1:1025" ht="56.25">
       <c r="A9" s="79" t="s">
         <v>51</v>
       </c>
@@ -4022,11 +4046,11 @@
       <c r="C9" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="115" t="s">
         <v>200</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="6">
@@ -4043,7 +4067,7 @@
       <c r="C10" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E10" s="20"/>
@@ -4052,7 +4076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1025">
+    <row r="11" spans="1:1025" ht="37.5">
       <c r="A11" s="79" t="s">
         <v>51</v>
       </c>
@@ -4062,7 +4086,7 @@
       <c r="C11" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E11" s="20"/>
@@ -4081,7 +4105,7 @@
       <c r="C12" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E12" s="20"/>
@@ -4090,7 +4114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1025">
+    <row r="13" spans="1:1025" ht="37.5">
       <c r="A13" s="79" t="s">
         <v>51</v>
       </c>
@@ -4100,7 +4124,7 @@
       <c r="C13" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E13" s="20"/>
@@ -4119,7 +4143,7 @@
       <c r="C14" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E14" s="20"/>
@@ -4138,7 +4162,7 @@
       <c r="C15" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E15" s="20"/>
@@ -4157,7 +4181,7 @@
       <c r="C16" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E16" s="20"/>
@@ -4176,7 +4200,7 @@
       <c r="C17" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E17" s="20"/>
@@ -4195,7 +4219,7 @@
       <c r="C18" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E18" s="20"/>
@@ -4204,7 +4228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="37.5">
       <c r="A19" s="79" t="s">
         <v>51</v>
       </c>
@@ -4214,7 +4238,7 @@
       <c r="C19" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="114" t="s">
         <v>200</v>
       </c>
       <c r="E19" s="20"/>
@@ -4223,7 +4247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42">
+    <row r="20" spans="1:7" ht="45">
       <c r="A20" s="79" t="s">
         <v>51</v>
       </c>
@@ -4233,18 +4257,18 @@
       <c r="C20" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="117" t="s">
         <v>200</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="54">
+    <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="80" t="s">
         <v>66</v>
       </c>
@@ -4254,11 +4278,11 @@
       <c r="C21" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="118" t="s">
         <v>200</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="6">
@@ -4275,7 +4299,7 @@
       <c r="C22" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="119" t="s">
         <v>200</v>
       </c>
       <c r="E22" s="26"/>
@@ -4294,7 +4318,7 @@
       <c r="C23" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E23" s="26"/>
@@ -4303,7 +4327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36">
+    <row r="24" spans="1:7" ht="56.25">
       <c r="A24" s="80" t="s">
         <v>66</v>
       </c>
@@ -4313,7 +4337,7 @@
       <c r="C24" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E24" s="20"/>
@@ -4322,7 +4346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="37.5">
       <c r="A25" s="80" t="s">
         <v>66</v>
       </c>
@@ -4332,7 +4356,7 @@
       <c r="C25" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="114" t="s">
         <v>200</v>
       </c>
       <c r="E25" s="26"/>
@@ -4346,12 +4370,12 @@
         <v>66</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>71</v>
+        <v>464</v>
       </c>
       <c r="C26" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E26" s="26"/>
@@ -4360,7 +4384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="36">
+    <row r="27" spans="1:7" ht="37.5">
       <c r="A27" s="80" t="s">
         <v>66</v>
       </c>
@@ -4370,7 +4394,7 @@
       <c r="C27" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="119" t="s">
         <v>200</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -4391,7 +4415,7 @@
       <c r="C28" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E28" s="26"/>
@@ -4410,7 +4434,7 @@
       <c r="C29" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E29" s="26"/>
@@ -4419,7 +4443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36">
+    <row r="30" spans="1:7" ht="56.25">
       <c r="A30" s="80" t="s">
         <v>66</v>
       </c>
@@ -4429,7 +4453,7 @@
       <c r="C30" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E30" s="26"/>
@@ -4448,7 +4472,7 @@
       <c r="C31" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E31" s="26"/>
@@ -4467,7 +4491,7 @@
       <c r="C32" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E32" s="26"/>
@@ -4486,7 +4510,7 @@
       <c r="C33" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E33" s="20"/>
@@ -4505,7 +4529,7 @@
       <c r="C34" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E34" s="20"/>
@@ -4524,7 +4548,7 @@
       <c r="C35" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E35" s="20"/>
@@ -4543,7 +4567,7 @@
       <c r="C36" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E36" s="20"/>
@@ -4552,7 +4576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28">
+    <row r="37" spans="1:7" ht="45">
       <c r="A37" s="80" t="s">
         <v>66</v>
       </c>
@@ -4562,18 +4586,18 @@
       <c r="C37" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="117" t="s">
         <v>200</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="36">
+    <row r="38" spans="1:7" ht="56.25">
       <c r="A38" s="81" t="s">
         <v>89</v>
       </c>
@@ -4583,91 +4607,89 @@
       <c r="C38" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="118" t="s">
         <v>200</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="54">
+    <row r="39" spans="1:7">
       <c r="A39" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="36">
+      <c r="B39" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="56.25">
       <c r="A40" s="81" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="20"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="37.5">
       <c r="A41" s="81" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="119" t="s">
         <v>199</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="112.5">
       <c r="A42" s="81" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="113" t="s">
-        <v>200</v>
+        <v>94</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>199</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4675,117 +4697,117 @@
         <v>89</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="119" t="s">
         <v>200</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>6</v>
+      <c r="B44" s="62" t="s">
+        <v>116</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="119" t="s">
         <v>200</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="37.5">
       <c r="A45" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C46" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="6">
+      <c r="D46" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="54">
-      <c r="A46" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="56.25">
       <c r="A47" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
+      <c r="B47" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F47" s="31"/>
       <c r="G47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="64" t="s">
-        <v>99</v>
+      <c r="B48" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
       <c r="G48" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4793,37 +4815,37 @@
         <v>96</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="110" t="s">
-        <v>199</v>
+        <v>100</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33"/>
       <c r="G49" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="37.5">
       <c r="A50" s="78" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="110" t="s">
-        <v>200</v>
+        <v>102</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
       <c r="G50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4831,18 +4853,18 @@
         <v>96</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
       <c r="G51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4850,18 +4872,18 @@
         <v>96</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="110" t="s">
-        <v>199</v>
+        <v>106</v>
+      </c>
+      <c r="D52" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
       <c r="G52" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4869,37 +4891,37 @@
         <v>96</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
       <c r="G53" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="65" t="s">
+      <c r="B54" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33"/>
       <c r="G54" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4907,37 +4929,37 @@
         <v>96</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="120" t="s">
         <v>199</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33"/>
       <c r="G55" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="110" t="s">
+      <c r="B56" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="120" t="s">
         <v>199</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="33"/>
       <c r="G56" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4945,37 +4967,37 @@
         <v>96</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="33"/>
       <c r="G57" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="6"/>
+      <c r="B58" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
       <c r="G58" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4983,18 +5005,18 @@
         <v>96</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C59" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5002,18 +5024,18 @@
         <v>96</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C60" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5021,265 +5043,265 @@
         <v>96</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C61" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="110" t="s">
-        <v>199</v>
+        <v>86</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>6</v>
+      <c r="B62" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C62" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
+        <v>87</v>
+      </c>
+      <c r="D62" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="37.5">
       <c r="A63" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="51">
+      <c r="A64" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="98" t="s">
+      <c r="C64" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="6">
+      <c r="D64" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="122" t="s">
+    <row r="65" spans="1:7">
+      <c r="A65" s="109" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="94" t="s">
-        <v>450</v>
-      </c>
-      <c r="D64" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="36">
-      <c r="A65" s="122" t="s">
-        <v>449</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>452</v>
-      </c>
-      <c r="D65" s="111" t="s">
-        <v>400</v>
+      <c r="D65" s="117" t="s">
+        <v>200</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="25"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="122" t="s">
-        <v>449</v>
+    <row r="66" spans="1:7" ht="37.5">
+      <c r="A66" s="109" t="s">
+        <v>448</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C66" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="D66" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>453</v>
-      </c>
+      <c r="D66" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="E66" s="37"/>
       <c r="F66" s="25"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="54">
-      <c r="A67" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="36">
+    <row r="67" spans="1:7">
+      <c r="A67" s="109" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>450</v>
+      </c>
+      <c r="D67" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" ht="75">
       <c r="A68" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="E68" s="39"/>
-      <c r="F68" s="40"/>
+      <c r="B68" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F68" s="31"/>
       <c r="G68" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="72">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="56.25">
       <c r="A69" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C69" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="114" t="s">
-        <v>199</v>
+        <v>121</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>200</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="40"/>
       <c r="G69" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="93.75">
       <c r="A70" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="D70" s="114" t="s">
+      <c r="B70" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
       <c r="G70" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="37.5">
       <c r="A71" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="114" t="s">
+        <v>368</v>
+      </c>
+      <c r="D71" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
       <c r="G71" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="56.25">
       <c r="A72" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="C72" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="43"/>
       <c r="G72" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75">
       <c r="A73" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="C73" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="39"/>
-      <c r="F73" s="40"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
       <c r="G73" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="37.5">
       <c r="A74" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="40"/>
       <c r="G74" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5287,18 +5309,18 @@
         <v>118</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="40"/>
       <c r="G75" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5306,20 +5328,18 @@
         <v>118</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E76" s="39"/>
-      <c r="F76" s="40" t="s">
-        <v>37</v>
-      </c>
+      <c r="F76" s="40"/>
       <c r="G76" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5327,18 +5347,20 @@
         <v>118</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="D77" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E77" s="39"/>
-      <c r="F77" s="40"/>
+      <c r="F77" s="40" t="s">
+        <v>37</v>
+      </c>
       <c r="G77" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5346,18 +5368,18 @@
         <v>118</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="D78" s="114" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" s="121" t="s">
         <v>199</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="40"/>
       <c r="G78" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5365,113 +5387,115 @@
         <v>118</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>455</v>
-      </c>
-      <c r="D79" s="115" t="s">
-        <v>200</v>
+        <v>366</v>
+      </c>
+      <c r="D79" s="121" t="s">
+        <v>199</v>
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="40"/>
       <c r="G79" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="37.5">
       <c r="A80" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>14</v>
+      <c r="B80" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="39"/>
+        <v>453</v>
+      </c>
+      <c r="D80" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="F80" s="40"/>
       <c r="G80" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="37.5">
       <c r="A81" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="41" t="s">
-        <v>141</v>
+      <c r="B81" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="115" t="s">
-        <v>199</v>
+        <v>140</v>
+      </c>
+      <c r="D81" s="122" t="s">
+        <v>200</v>
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="40"/>
       <c r="G81" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="56.25">
       <c r="A82" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="D82" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="39"/>
+      <c r="F82" s="40"/>
       <c r="G82" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="37.5">
       <c r="A83" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D83" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="121" t="s">
         <v>200</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>21</v>
+      <c r="B84" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="C84" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="121" t="s">
         <v>200</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5479,18 +5503,18 @@
         <v>118</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C85" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5498,18 +5522,18 @@
         <v>118</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C86" s="92" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5517,37 +5541,37 @@
         <v>118</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="110" t="s">
-        <v>199</v>
+        <v>364</v>
+      </c>
+      <c r="D87" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="41" t="s">
-        <v>148</v>
+      <c r="B88" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D88" s="115" t="s">
-        <v>200</v>
+        <v>87</v>
+      </c>
+      <c r="D88" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5555,58 +5579,58 @@
         <v>118</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="115" t="s">
-        <v>199</v>
+        <v>149</v>
+      </c>
+      <c r="D89" s="122" t="s">
+        <v>200</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="123" t="s">
+      <c r="B90" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="56.25">
+      <c r="A91" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="124" t="s">
+      <c r="C91" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="125" t="s">
-        <v>200</v>
-      </c>
-      <c r="E90" s="126" t="s">
-        <v>454</v>
-      </c>
-      <c r="F90" s="25"/>
-      <c r="G90" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="94"/>
-      <c r="D91" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="51" t="s">
-        <v>426</v>
+      <c r="D91" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" s="112" t="s">
+        <v>465</v>
       </c>
       <c r="F91" s="25"/>
       <c r="G91" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5614,16 +5638,18 @@
         <v>153</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C92" s="94"/>
-      <c r="D92" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" s="37"/>
+      <c r="D92" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>425</v>
+      </c>
       <c r="F92" s="25"/>
       <c r="G92" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5631,16 +5657,16 @@
         <v>153</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C93" s="94"/>
-      <c r="D93" s="110" t="s">
+      <c r="D93" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="25"/>
       <c r="G93" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5648,16 +5674,16 @@
         <v>153</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="C94" s="94"/>
-      <c r="D94" s="110" t="s">
+      <c r="D94" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="25"/>
       <c r="G94" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5665,16 +5691,16 @@
         <v>153</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="C95" s="94"/>
-      <c r="D95" s="110" t="s">
-        <v>200</v>
+      <c r="D95" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="25"/>
       <c r="G95" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5682,16 +5708,16 @@
         <v>153</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C96" s="94"/>
-      <c r="D96" s="110" t="s">
+      <c r="D96" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="25"/>
       <c r="G96" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5699,16 +5725,16 @@
         <v>153</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C97" s="94"/>
-      <c r="D97" s="110" t="s">
+      <c r="D97" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="25"/>
       <c r="G97" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5716,113 +5742,111 @@
         <v>153</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C98" s="94"/>
-      <c r="D98" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>75</v>
-      </c>
+      <c r="D98" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="37"/>
       <c r="F98" s="25"/>
       <c r="G98" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="94"/>
+      <c r="D99" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F99" s="25"/>
+      <c r="G99" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="54">
-      <c r="A99" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="D99" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="56.25">
       <c r="A100" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="66" t="s">
-        <v>124</v>
+      <c r="B100" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C100" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" s="116" t="s">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="D100" s="124" t="s">
+        <v>200</v>
       </c>
       <c r="E100" s="46"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="37.5">
       <c r="A101" s="83" t="s">
         <v>155</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C101" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="D101" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="124" t="s">
         <v>199</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="54">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="75">
       <c r="A102" s="83" t="s">
         <v>155</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="D102" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="124" t="s">
         <v>199</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="56.25">
       <c r="A103" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B103" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E103" s="20"/>
+      <c r="B103" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="46"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5830,18 +5854,18 @@
         <v>155</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C104" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5849,18 +5873,18 @@
         <v>155</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5868,117 +5892,117 @@
         <v>155</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="110" t="s">
-        <v>199</v>
+        <v>86</v>
+      </c>
+      <c r="D106" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="48">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" s="20"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45">
+      <c r="A108" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="94" t="s">
+      <c r="C108" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="D107" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="E107" s="47" t="s">
+      <c r="D108" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="F107" s="25"/>
-      <c r="G107" s="6">
+      <c r="F108" s="25"/>
+      <c r="G108" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="54">
-      <c r="A108" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D108" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="E108" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F108" s="18"/>
-      <c r="G108" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="75">
       <c r="A109" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="6"/>
+      <c r="B109" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="F109" s="18"/>
       <c r="G109" s="6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="72">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="D110" s="110" t="s">
+      <c r="B110" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="75">
       <c r="A111" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B111" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="110" t="s">
+      <c r="B111" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5986,37 +6010,37 @@
         <v>163</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D112" s="110" t="s">
-        <v>199</v>
+        <v>99</v>
+      </c>
+      <c r="C112" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="37.5">
       <c r="A113" s="84" t="s">
         <v>163</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C113" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D113" s="110" t="s">
-        <v>200</v>
+        <v>102</v>
+      </c>
+      <c r="D113" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6024,18 +6048,18 @@
         <v>163</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C114" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6043,18 +6067,18 @@
         <v>163</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C115" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="D115" s="110" t="s">
-        <v>199</v>
+        <v>106</v>
+      </c>
+      <c r="D115" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6062,18 +6086,18 @@
         <v>163</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C116" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6081,18 +6105,18 @@
         <v>163</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C117" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6100,18 +6124,18 @@
         <v>163</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C118" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="D118" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6119,37 +6143,37 @@
         <v>163</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C119" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="D119" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="116" t="s">
         <v>199</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B120" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" s="110" t="s">
-        <v>200</v>
+      <c r="B120" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6157,18 +6181,18 @@
         <v>163</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C121" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D121" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6176,18 +6200,18 @@
         <v>163</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C122" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D122" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6195,117 +6219,117 @@
         <v>163</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C123" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D123" s="110" t="s">
-        <v>199</v>
+        <v>86</v>
+      </c>
+      <c r="D123" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>6</v>
+      <c r="B124" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C124" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="108" t="s">
-        <v>200</v>
+        <v>87</v>
+      </c>
+      <c r="D124" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="28">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="37.5">
       <c r="A125" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B125" s="28" t="s">
+      <c r="B125" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30">
+      <c r="A126" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="94" t="s">
+      <c r="C126" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="D125" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F125" s="25"/>
-      <c r="G125" s="6">
+      <c r="D126" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F126" s="25"/>
+      <c r="G126" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="54">
-      <c r="A126" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B126" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="E126" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="6">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="36">
+    <row r="127" spans="1:7" ht="56.25">
       <c r="A127" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C127" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="D127" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="E127" s="49"/>
-      <c r="F127" s="13"/>
+      <c r="B127" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="F127" s="18"/>
       <c r="G127" s="6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="37.5">
       <c r="A128" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B128" s="57" t="s">
-        <v>120</v>
+      <c r="B128" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C128" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="D128" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E128" s="50"/>
+        <v>177</v>
+      </c>
+      <c r="D128" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="49"/>
       <c r="F128" s="13"/>
       <c r="G128" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6313,56 +6337,56 @@
         <v>174</v>
       </c>
       <c r="B129" s="57" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C129" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="D129" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" s="125" t="s">
         <v>200</v>
       </c>
       <c r="E129" s="50"/>
       <c r="F129" s="13"/>
       <c r="G129" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="36">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="78" t="s">
         <v>174</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C130" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="D130" s="117" t="s">
-        <v>199</v>
+        <v>180</v>
+      </c>
+      <c r="D130" s="125" t="s">
+        <v>200</v>
       </c>
       <c r="E130" s="50"/>
       <c r="F130" s="13"/>
       <c r="G130" s="6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="56.25">
       <c r="A131" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B131" s="56" t="s">
-        <v>55</v>
+      <c r="B131" s="57" t="s">
+        <v>181</v>
       </c>
       <c r="C131" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="D131" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="D131" s="125" t="s">
         <v>199</v>
       </c>
       <c r="E131" s="50"/>
       <c r="F131" s="13"/>
       <c r="G131" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6370,18 +6394,18 @@
         <v>174</v>
       </c>
       <c r="B132" s="56" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="C132" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="D132" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="D132" s="125" t="s">
         <v>199</v>
       </c>
       <c r="E132" s="50"/>
       <c r="F132" s="13"/>
       <c r="G132" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6389,94 +6413,94 @@
         <v>174</v>
       </c>
       <c r="B133" s="56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C133" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="D133" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" s="125" t="s">
         <v>199</v>
       </c>
       <c r="E133" s="50"/>
       <c r="F133" s="13"/>
       <c r="G133" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B134" s="57" t="s">
-        <v>188</v>
+      <c r="B134" s="56" t="s">
+        <v>186</v>
       </c>
       <c r="C134" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D134" s="117" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="D134" s="125" t="s">
+        <v>199</v>
       </c>
       <c r="E134" s="50"/>
       <c r="F134" s="13"/>
       <c r="G134" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="36">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B135" s="56" t="s">
-        <v>190</v>
+      <c r="B135" s="57" t="s">
+        <v>188</v>
       </c>
       <c r="C135" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="D135" s="117" t="s">
-        <v>199</v>
+        <v>189</v>
+      </c>
+      <c r="D135" s="125" t="s">
+        <v>200</v>
       </c>
       <c r="E135" s="50"/>
       <c r="F135" s="13"/>
       <c r="G135" s="6">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="72">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="56.25">
       <c r="A136" s="78" t="s">
         <v>174</v>
       </c>
       <c r="B136" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C136" s="97" t="s">
-        <v>193</v>
-      </c>
-      <c r="D136" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136" s="125" t="s">
         <v>199</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="13"/>
       <c r="G136" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="93.75">
       <c r="A137" s="78" t="s">
         <v>174</v>
       </c>
       <c r="B137" s="56" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="C137" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="D137" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" s="125" t="s">
         <v>199</v>
       </c>
       <c r="E137" s="50"/>
       <c r="F137" s="13"/>
       <c r="G137" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6484,37 +6508,37 @@
         <v>174</v>
       </c>
       <c r="B138" s="56" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C138" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" s="125" t="s">
         <v>199</v>
       </c>
       <c r="E138" s="50"/>
       <c r="F138" s="13"/>
       <c r="G138" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C139" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D139" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="E139" s="20"/>
-      <c r="F139" s="6"/>
+      <c r="B139" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E139" s="50"/>
+      <c r="F139" s="13"/>
       <c r="G139" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6522,18 +6546,18 @@
         <v>174</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C140" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D140" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6541,18 +6565,18 @@
         <v>174</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C141" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D141" s="116" t="s">
         <v>200</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6560,613 +6584,611 @@
         <v>174</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C142" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D142" s="110" t="s">
-        <v>199</v>
+        <v>86</v>
+      </c>
+      <c r="D142" s="116" t="s">
+        <v>200</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B143" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C143" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D143" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E143" s="50"/>
-      <c r="F143" s="13"/>
+      <c r="B143" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D143" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" s="20"/>
+      <c r="F143" s="6"/>
       <c r="G143" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B144" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D144" s="108" t="s">
+      <c r="B144" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" s="125" t="s">
         <v>200</v>
       </c>
       <c r="E144" s="50"/>
       <c r="F144" s="13"/>
       <c r="G144" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="42">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="37.5">
       <c r="A145" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="60" t="s">
+      <c r="B145" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="E145" s="50"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45">
+      <c r="A146" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="94" t="s">
+      <c r="C146" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D145" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F145" s="25"/>
-      <c r="G145" s="6">
+      <c r="D146" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F146" s="25"/>
+      <c r="G146" s="6">
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="25">
-      <c r="A146" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B146" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F146" s="5"/>
-      <c r="G146" s="6">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="37">
+    <row r="147" spans="1:7">
       <c r="A147" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B147" s="67" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C147" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="D147" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="4"/>
+      <c r="E147" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F147" s="5"/>
       <c r="G147" s="6">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="38.25">
       <c r="A148" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C148" s="101" t="s">
-        <v>428</v>
-      </c>
-      <c r="D148" s="118" t="s">
-        <v>200</v>
+      <c r="B148" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
       <c r="C149" s="101" t="s">
-        <v>432</v>
-      </c>
-      <c r="D149" s="118" t="s">
+        <v>427</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C150" s="101" t="s">
-        <v>430</v>
-      </c>
-      <c r="D150" s="118" t="s">
+        <v>431</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="55">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B151" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="D151" s="118" t="s">
-        <v>11</v>
+      <c r="B151" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C151" s="101" t="s">
+        <v>429</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="37">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="75.75">
       <c r="A152" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B152" s="67" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C152" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="38.25">
       <c r="A153" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B153" s="69" t="s">
-        <v>19</v>
+      <c r="B153" s="67" t="s">
+        <v>17</v>
       </c>
       <c r="C153" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="D153" s="118" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="6">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="55">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B154" s="67" t="s">
-        <v>2</v>
+      <c r="B154" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="C154" s="100" t="s">
-        <v>389</v>
-      </c>
-      <c r="D154" s="118" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="57">
       <c r="A155" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B155" s="67" t="s">
-        <v>390</v>
+        <v>2</v>
       </c>
       <c r="C155" s="100" t="s">
-        <v>391</v>
-      </c>
-      <c r="D155" s="118" t="s">
-        <v>10</v>
+        <v>388</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="6">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B156" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="6"/>
+        <v>389</v>
+      </c>
+      <c r="C156" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B157" s="67" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C157" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D157" s="118" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="38.25">
       <c r="A158" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="D158" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="7"/>
-      <c r="F158" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="B158" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="6"/>
+      <c r="F158" s="5"/>
       <c r="G158" s="6">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B159" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C159" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="D159" s="118" t="s">
+      <c r="B159" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E159" s="6"/>
-      <c r="F159" s="5"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G159" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B160" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C160" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D160" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="5"/>
       <c r="G160" s="6">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="38.25">
       <c r="A161" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B161" s="67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C161" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" s="118" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="37">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="38.25">
       <c r="A162" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B162" s="67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C162" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" s="118" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="57">
       <c r="A163" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B163" s="67" t="s">
-        <v>412</v>
+        <v>23</v>
       </c>
       <c r="C163" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="D163" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="5"/>
       <c r="G163" s="6">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B164" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="C164" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="C164" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="D164" s="118" t="s">
+      <c r="D164" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="37">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="C165" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="D165" s="118" t="s">
-        <v>30</v>
+        <v>414</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="73">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="38.25">
       <c r="A166" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B166" s="67" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C166" s="92" t="s">
-        <v>376</v>
-      </c>
-      <c r="D166" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>427</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="94.5">
+      <c r="A167" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="6">
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="25">
-      <c r="A167" s="86" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B168" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="B167" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="D167" s="118" t="s">
+      <c r="D168" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="25">
-      <c r="A168" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="B168" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="92" t="s">
-        <v>377</v>
-      </c>
-      <c r="D168" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E168" s="17"/>
+      <c r="E168" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="37">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B169" s="71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C169" s="92" t="s">
-        <v>364</v>
-      </c>
-      <c r="D169" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E169" s="6"/>
+        <v>376</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E169" s="17"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="38.25">
       <c r="A170" s="86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B170" s="71" t="s">
-        <v>360</v>
+        <v>21</v>
       </c>
       <c r="C170" s="92" t="s">
-        <v>392</v>
-      </c>
-      <c r="D170" s="118" t="s">
-        <v>11</v>
+        <v>363</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="38.25">
+      <c r="A171" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6">
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="25">
-      <c r="A171" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="B171" s="67" t="s">
+    <row r="172" spans="1:7">
+      <c r="A172" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C172" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="C171" s="100" t="s">
-        <v>391</v>
-      </c>
-      <c r="D171" s="118" t="s">
+      <c r="D172" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="4"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="6">
+      <c r="E172" s="4"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="25">
-      <c r="A172" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="B172" s="71" t="s">
+    <row r="173" spans="1:7">
+      <c r="A173" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C173" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="C172" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="D172" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G172" s="6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="25">
-      <c r="A173" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="B173" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C173" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="D173" s="118" t="s">
+      <c r="D173" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E173" s="6"/>
@@ -7174,64 +7196,64 @@
         <v>37</v>
       </c>
       <c r="G173" s="6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="58">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B174" s="71" t="s">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="C174" s="92" t="s">
-        <v>380</v>
-      </c>
-      <c r="D174" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>381</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G174" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="25">
-      <c r="A175" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="B175" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="102" t="s">
-        <v>385</v>
-      </c>
-      <c r="D175" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E175" s="6"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="76.5">
+      <c r="A175" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B175" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="C175" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="F175" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G175" s="6">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="B176" s="73" t="s">
-        <v>361</v>
+        <v>381</v>
+      </c>
+      <c r="B176" s="72" t="s">
+        <v>20</v>
       </c>
       <c r="C176" s="102" t="s">
-        <v>383</v>
-      </c>
-      <c r="D176" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="D176" s="126" t="s">
         <v>200</v>
       </c>
       <c r="E176" s="6"/>
@@ -7239,81 +7261,81 @@
         <v>37</v>
       </c>
       <c r="G176" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="B177" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="C177" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="D177" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G177" s="6">
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="37">
-      <c r="A177" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="B177" s="72" t="s">
+    <row r="178" spans="1:7" ht="38.25">
+      <c r="A178" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="B178" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C177" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="D177" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="44">
-      <c r="A178" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="B178" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="C178" s="102" t="s">
-        <v>387</v>
-      </c>
-      <c r="D178" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>407</v>
-      </c>
+      <c r="C178" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D178" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="46.5">
+      <c r="A179" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="B179" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="C179" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="D179" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6">
         <v>174</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="25">
-      <c r="A179" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="B179" s="74" t="s">
+    <row r="180" spans="1:7">
+      <c r="A180" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C179" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="D179" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E179" s="53"/>
-      <c r="F179" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G179" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="25">
-      <c r="A180" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="B180" s="75" t="s">
-        <v>361</v>
-      </c>
       <c r="C180" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="D180" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="D180" s="127" t="s">
         <v>200</v>
       </c>
       <c r="E180" s="53"/>
@@ -7321,556 +7343,577 @@
         <v>37</v>
       </c>
       <c r="G180" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B181" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" s="103" t="s">
+        <v>382</v>
+      </c>
+      <c r="D181" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="53"/>
+      <c r="F181" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" s="6">
         <v>176</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="37">
-      <c r="A181" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="B181" s="74" t="s">
+    <row r="182" spans="1:7" ht="38.25">
+      <c r="A182" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B182" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C181" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="D181" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="25">
-      <c r="A182" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="B182" s="74" t="s">
-        <v>360</v>
-      </c>
       <c r="C182" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="D182" s="74" t="s">
-        <v>11</v>
+        <v>385</v>
+      </c>
+      <c r="D182" s="127" t="s">
+        <v>200</v>
       </c>
       <c r="E182" s="53"/>
       <c r="F182" s="53"/>
       <c r="G182" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="44">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B183" s="74" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C183" s="103" t="s">
-        <v>411</v>
-      </c>
-      <c r="D183" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E183" s="54" t="s">
-        <v>434</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="D183" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="53"/>
       <c r="F183" s="53"/>
       <c r="G183" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="46.5">
+      <c r="A184" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B184" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C184" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D184" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="E184" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="F184" s="53"/>
+      <c r="G184" s="6">
         <v>179</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="25">
-      <c r="A184" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="B184" s="76" t="s">
+    <row r="185" spans="1:7">
+      <c r="A185" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="104" t="s">
-        <v>406</v>
-      </c>
-      <c r="D184" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="E184" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="25">
-      <c r="A185" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="B185" s="76" t="s">
-        <v>393</v>
-      </c>
-      <c r="C185" s="92" t="s">
-        <v>404</v>
-      </c>
-      <c r="D185" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" s="6"/>
+      <c r="C185" s="104" t="s">
+        <v>405</v>
+      </c>
+      <c r="D185" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B186" s="76" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C186" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="D186" s="76" t="s">
-        <v>400</v>
+        <v>403</v>
+      </c>
+      <c r="D186" s="129" t="s">
+        <v>10</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B187" s="76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C187" s="92" t="s">
-        <v>395</v>
-      </c>
-      <c r="D187" s="76" t="s">
-        <v>200</v>
+        <v>393</v>
+      </c>
+      <c r="D187" s="128" t="s">
+        <v>399</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="37">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B188" s="76" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C188" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="D188" s="119" t="s">
-        <v>8</v>
+        <v>394</v>
+      </c>
+      <c r="D188" s="128" t="s">
+        <v>200</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="38.25">
       <c r="A189" s="89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C189" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="D189" s="119" t="s">
+        <v>400</v>
+      </c>
+      <c r="D189" s="129" t="s">
         <v>8</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="37">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="B190" s="72" t="s">
-        <v>21</v>
+        <v>387</v>
+      </c>
+      <c r="B190" s="76" t="s">
+        <v>398</v>
       </c>
       <c r="C190" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="D190" s="72" t="s">
-        <v>200</v>
+        <v>401</v>
+      </c>
+      <c r="D190" s="129" t="s">
+        <v>8</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="38.25">
+      <c r="A191" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B191" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D191" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6">
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="30">
-      <c r="A191" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191" s="71" t="s">
+    <row r="192" spans="1:7" ht="31.5">
+      <c r="A192" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B192" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C191" s="92" t="s">
-        <v>403</v>
-      </c>
-      <c r="D191" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="F191" s="6" t="s">
+      <c r="C192" s="92" t="s">
+        <v>402</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E192" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G191" s="6">
+      <c r="G192" s="6">
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="25">
-      <c r="A192" s="88" t="s">
+    <row r="193" spans="1:7">
+      <c r="A193" s="88" t="s">
+        <v>415</v>
+      </c>
+      <c r="B193" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="B192" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="D192" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E192" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="37">
-      <c r="A193" s="88" t="s">
-        <v>416</v>
-      </c>
-      <c r="B193" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" s="92" t="s">
-        <v>418</v>
-      </c>
-      <c r="D193" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E193" s="6"/>
+      <c r="D193" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="38.25">
       <c r="A194" s="88" t="s">
-        <v>416</v>
-      </c>
-      <c r="B194" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C194" s="103" t="s">
-        <v>425</v>
-      </c>
-      <c r="D194" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="B194" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="D194" s="130" t="s">
         <v>200</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="88" t="s">
-        <v>416</v>
-      </c>
-      <c r="B195" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C195" s="92" t="s">
-        <v>419</v>
-      </c>
-      <c r="D195" s="67" t="s">
-        <v>400</v>
+        <v>415</v>
+      </c>
+      <c r="B195" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="D195" s="130" t="s">
+        <v>200</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B196" s="76" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="C196" s="92" t="s">
-        <v>421</v>
-      </c>
-      <c r="D196" s="67" t="s">
-        <v>200</v>
+        <v>418</v>
+      </c>
+      <c r="D196" s="130" t="s">
+        <v>399</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="37">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B197" s="76" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C197" s="92" t="s">
-        <v>423</v>
-      </c>
-      <c r="D197" s="67" t="s">
-        <v>11</v>
+        <v>420</v>
+      </c>
+      <c r="D197" s="130" t="s">
+        <v>200</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="38.25">
       <c r="A198" s="88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B198" s="76" t="s">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="D198" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="D198" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E198" s="15" t="s">
-        <v>438</v>
-      </c>
+      <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="120" t="s">
-        <v>436</v>
-      </c>
-      <c r="B199" s="67" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="31.5">
+      <c r="A199" s="88" t="s">
+        <v>415</v>
+      </c>
+      <c r="B199" s="76" t="s">
+        <v>2</v>
       </c>
       <c r="C199" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="D199" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="15" t="s">
         <v>437</v>
-      </c>
-      <c r="D199" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E199" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="120" t="s">
+      <c r="A200" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="B200" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="92" t="s">
         <v>436</v>
       </c>
-      <c r="B200" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C200" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="D200" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E200" s="6"/>
+      <c r="D200" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="91">
-      <c r="A201" s="120" t="s">
-        <v>436</v>
-      </c>
-      <c r="B201" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="C201" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="D201" s="67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="B201" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C201" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="D201" s="130" t="s">
         <v>200</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="120" t="s">
-        <v>436</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="94.5">
+      <c r="A202" s="107" t="s">
+        <v>435</v>
       </c>
       <c r="B202" s="67" t="s">
-        <v>55</v>
+        <v>438</v>
       </c>
       <c r="C202" s="92" t="s">
-        <v>440</v>
-      </c>
-      <c r="D202" s="67" t="s">
-        <v>400</v>
+        <v>441</v>
+      </c>
+      <c r="D202" s="130" t="s">
+        <v>200</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="120" t="s">
-        <v>436</v>
-      </c>
-      <c r="B203" s="76" t="s">
-        <v>420</v>
+      <c r="A203" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="B203" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="C203" s="92" t="s">
-        <v>421</v>
-      </c>
-      <c r="D203" s="67" t="s">
-        <v>200</v>
+        <v>439</v>
+      </c>
+      <c r="D203" s="130" t="s">
+        <v>399</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="36" customHeight="1">
-      <c r="A204" s="120" t="s">
-        <v>436</v>
-      </c>
-      <c r="B204" s="67" t="s">
-        <v>2</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="B204" s="76" t="s">
+        <v>419</v>
       </c>
       <c r="C204" s="92" t="s">
-        <v>441</v>
-      </c>
-      <c r="D204" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>438</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D204" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="121" t="s">
-        <v>443</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="36" customHeight="1">
+      <c r="A205" s="107" t="s">
+        <v>435</v>
       </c>
       <c r="B205" s="67" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C205" s="92" t="s">
-        <v>444</v>
-      </c>
-      <c r="D205" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E205" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="D205" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>437</v>
+      </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B206" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D206" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6">
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="121" t="s">
-        <v>443</v>
-      </c>
-      <c r="B206" s="74" t="s">
+    <row r="207" spans="1:7">
+      <c r="A207" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B207" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C206" s="103" t="s">
-        <v>447</v>
-      </c>
-      <c r="D206" s="67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="121" t="s">
-        <v>443</v>
-      </c>
-      <c r="B207" s="67" t="s">
+      <c r="C207" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="D207" s="130" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B208" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C207" s="92" t="s">
-        <v>445</v>
-      </c>
-      <c r="D207" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="121" t="s">
-        <v>443</v>
-      </c>
-      <c r="B208" s="67" t="s">
-        <v>2</v>
-      </c>
       <c r="C208" s="92" t="s">
-        <v>446</v>
-      </c>
-      <c r="D208" s="67" t="s">
-        <v>11</v>
+        <v>444</v>
+      </c>
+      <c r="D208" s="130" t="s">
+        <v>399</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B209" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="D209" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G173"/>
+  <autoFilter ref="A1:G174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7880,21 +7923,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
@@ -7910,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7921,32 +7963,54 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C5" t="s">
-        <v>462</v>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7960,22 +8024,42 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18">
+    <row r="1" spans="1:24" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8060,37 +8144,39 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -8101,10 +8187,10 @@
         <v>120</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>27</v>
@@ -8119,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>13</v>
@@ -8143,10 +8229,10 @@
         <v>23</v>
       </c>
       <c r="R1" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="S1" s="67" t="s">
         <v>412</v>
-      </c>
-      <c r="S1" s="67" t="s">
-        <v>413</v>
       </c>
       <c r="T1" s="67" t="s">
         <v>38</v>
@@ -8167,30 +8253,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8239,16 +8325,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8312,32 +8398,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>317</v>
+        <v>467</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>91</v>
@@ -8579,7 +8665,7 @@
         <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8596,7 +8682,7 @@
         <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8613,7 +8699,7 @@
         <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8630,7 +8716,7 @@
         <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8647,7 +8733,7 @@
         <v>230</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8664,7 +8750,7 @@
         <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8681,7 +8767,7 @@
         <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8698,7 +8784,7 @@
         <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8715,7 +8801,7 @@
         <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8732,7 +8818,7 @@
         <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8749,7 +8835,7 @@
         <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8766,7 +8852,7 @@
         <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8783,7 +8869,7 @@
         <v>246</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8800,7 +8886,7 @@
         <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8817,7 +8903,7 @@
         <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8834,7 +8920,7 @@
         <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8851,7 +8937,7 @@
         <v>254</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8868,7 +8954,7 @@
         <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8885,7 +8971,7 @@
         <v>258</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8902,7 +8988,7 @@
         <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8919,7 +9005,7 @@
         <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8936,7 +9022,7 @@
         <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8953,7 +9039,7 @@
         <v>266</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8970,7 +9056,7 @@
         <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8987,7 +9073,7 @@
         <v>270</v>
       </c>
       <c r="E38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9004,7 +9090,7 @@
         <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9021,7 +9107,7 @@
         <v>274</v>
       </c>
       <c r="E40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9038,7 +9124,7 @@
         <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -9055,10 +9141,10 @@
         <v>278</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -9072,10 +9158,10 @@
         <v>280</v>
       </c>
       <c r="E43" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -9089,7 +9175,7 @@
         <v>282</v>
       </c>
       <c r="E44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9106,7 +9192,7 @@
         <v>284</v>
       </c>
       <c r="E45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9123,7 +9209,7 @@
         <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -9140,7 +9226,7 @@
         <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -9157,7 +9243,7 @@
         <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -9174,7 +9260,7 @@
         <v>292</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9191,7 +9277,7 @@
         <v>294</v>
       </c>
       <c r="E50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9208,7 +9294,7 @@
         <v>296</v>
       </c>
       <c r="E51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9225,7 +9311,7 @@
         <v>298</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9242,7 +9328,7 @@
         <v>300</v>
       </c>
       <c r="E53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -9257,26 +9343,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
@@ -9313,27 +9399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
@@ -9373,36 +9459,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
+    <row r="1" spans="1:18" ht="18.75">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -9469,36 +9555,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
+    <row r="1" spans="1:18" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -9565,22 +9651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>

--- a/db/excel/oracle-inovation-manager-ver-1.0.xlsx
+++ b/db/excel/oracle-inovation-manager-ver-1.0.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NODEJS\m-inovation\db\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA6A7C-9C65-4BFE-8276-E11724C7AEC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$175</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="470">
   <si>
     <t>table_name</t>
   </si>
@@ -1446,13 +1440,19 @@
   </si>
   <si>
     <t>group_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Địa chỉ liên hệ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1853,9 +1853,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2307,7 +2309,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="130">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2372,6 +2374,7 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2435,6 +2438,7 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2839,23 +2843,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK209"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="105" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" s="90" customFormat="1">
@@ -3939,7 +3943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="37.5">
+    <row r="4" spans="1:1025" ht="36">
       <c r="A4" s="78" t="s">
         <v>42</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="56.25">
+    <row r="5" spans="1:1025" ht="36">
       <c r="A5" s="78" t="s">
         <v>42</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="93.75">
+    <row r="6" spans="1:1025" ht="54">
       <c r="A6" s="78" t="s">
         <v>42</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="37.5">
+    <row r="7" spans="1:1025" ht="36">
       <c r="A7" s="78" t="s">
         <v>42</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="37.5">
+    <row r="8" spans="1:1025">
       <c r="A8" s="78" t="s">
         <v>42</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="56.25">
+    <row r="9" spans="1:1025" ht="36">
       <c r="A9" s="79" t="s">
         <v>51</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="37.5">
+    <row r="11" spans="1:1025">
       <c r="A11" s="79" t="s">
         <v>51</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="37.5">
+    <row r="13" spans="1:1025">
       <c r="A13" s="79" t="s">
         <v>51</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="37.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="79" t="s">
         <v>51</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="42">
       <c r="A20" s="79" t="s">
         <v>51</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="56.25">
+    <row r="21" spans="1:7" ht="54">
       <c r="A21" s="80" t="s">
         <v>66</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25">
+    <row r="24" spans="1:7" ht="36">
       <c r="A24" s="80" t="s">
         <v>66</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="37.5">
+    <row r="25" spans="1:7">
       <c r="A25" s="80" t="s">
         <v>66</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="37.5">
+    <row r="27" spans="1:7" ht="36">
       <c r="A27" s="80" t="s">
         <v>66</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25">
+    <row r="30" spans="1:7" ht="36">
       <c r="A30" s="80" t="s">
         <v>66</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45">
+    <row r="37" spans="1:7" ht="28">
       <c r="A37" s="80" t="s">
         <v>66</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56.25">
+    <row r="38" spans="1:7" ht="36">
       <c r="A38" s="81" t="s">
         <v>89</v>
       </c>
@@ -4635,7 +4639,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="56.25">
+    <row r="40" spans="1:7" ht="54">
       <c r="A40" s="81" t="s">
         <v>89</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="37.5">
+    <row r="41" spans="1:7" ht="36">
       <c r="A41" s="81" t="s">
         <v>89</v>
       </c>
@@ -4673,7 +4677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="112.5">
+    <row r="42" spans="1:7" ht="90">
       <c r="A42" s="81" t="s">
         <v>89</v>
       </c>
@@ -4730,7 +4734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="37.5">
+    <row r="45" spans="1:7">
       <c r="A45" s="81" t="s">
         <v>89</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7">
       <c r="A46" s="81" t="s">
         <v>89</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="56.25">
+    <row r="47" spans="1:7" ht="54">
       <c r="A47" s="78" t="s">
         <v>96</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="37.5">
+    <row r="50" spans="1:7">
       <c r="A50" s="78" t="s">
         <v>96</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="37.5">
+    <row r="63" spans="1:7">
       <c r="A63" s="78" t="s">
         <v>96</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51">
+    <row r="64" spans="1:7" ht="56">
       <c r="A64" s="78" t="s">
         <v>96</v>
       </c>
@@ -5133,7 +5137,7 @@
       <c r="F65" s="25"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="37.5">
+    <row r="66" spans="1:7" ht="36">
       <c r="A66" s="109" t="s">
         <v>448</v>
       </c>
@@ -5169,7 +5173,7 @@
       <c r="F67" s="25"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" ht="75">
+    <row r="68" spans="1:7" ht="54">
       <c r="A68" s="79" t="s">
         <v>118</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="56.25">
+    <row r="69" spans="1:7" ht="36">
       <c r="A69" s="79" t="s">
         <v>118</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="93.75">
+    <row r="70" spans="1:7" ht="72">
       <c r="A70" s="79" t="s">
         <v>118</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="37.5">
+    <row r="71" spans="1:7" ht="36">
       <c r="A71" s="79" t="s">
         <v>118</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="56.25">
+    <row r="72" spans="1:7" ht="36">
       <c r="A72" s="79" t="s">
         <v>118</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="75">
+    <row r="73" spans="1:7" ht="72">
       <c r="A73" s="79" t="s">
         <v>118</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="37.5">
+    <row r="74" spans="1:7" ht="36">
       <c r="A74" s="79" t="s">
         <v>118</v>
       </c>
@@ -5387,96 +5391,94 @@
         <v>118</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>138</v>
+        <v>468</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>366</v>
+        <v>469</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>199</v>
+        <v>407</v>
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="37.5">
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>453</v>
-      </c>
-      <c r="D80" s="122" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>75</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D80" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="39"/>
       <c r="F80" s="40"/>
       <c r="G80" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="37.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>14</v>
+      <c r="B81" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>140</v>
+        <v>453</v>
       </c>
       <c r="D81" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="E81" s="39"/>
+      <c r="E81" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="F81" s="40"/>
       <c r="G81" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="56.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="36">
       <c r="A82" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="41" t="s">
-        <v>141</v>
+      <c r="B82" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" s="122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="40"/>
       <c r="G82" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="37.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="36">
       <c r="A83" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="121" t="s">
-        <v>200</v>
-      </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="D83" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5484,10 +5486,10 @@
         <v>118</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" s="92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D84" s="121" t="s">
         <v>200</v>
@@ -5495,26 +5497,26 @@
       <c r="E84" s="20"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>21</v>
+      <c r="B85" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="C85" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="121" t="s">
         <v>200</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5522,10 +5524,10 @@
         <v>118</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C86" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="116" t="s">
         <v>200</v>
@@ -5533,7 +5535,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5541,10 +5543,10 @@
         <v>118</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="D87" s="116" t="s">
         <v>200</v>
@@ -5552,7 +5554,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5560,37 +5562,37 @@
         <v>118</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="D88" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="41" t="s">
-        <v>148</v>
+      <c r="B89" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="122" t="s">
-        <v>200</v>
+        <v>87</v>
+      </c>
+      <c r="D89" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5598,58 +5600,58 @@
         <v>118</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C90" s="92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D90" s="122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="56.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="54">
+      <c r="A92" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="111" t="s">
+      <c r="C92" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="D91" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="112" t="s">
+      <c r="D92" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" s="112" t="s">
         <v>465</v>
-      </c>
-      <c r="F91" s="25"/>
-      <c r="G91" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="94"/>
-      <c r="D92" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>425</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5657,16 +5659,18 @@
         <v>153</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C93" s="94"/>
-      <c r="D93" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="E93" s="37"/>
+      <c r="D93" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>425</v>
+      </c>
       <c r="F93" s="25"/>
       <c r="G93" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5674,7 +5678,7 @@
         <v>153</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C94" s="94"/>
       <c r="D94" s="116" t="s">
@@ -5683,7 +5687,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="25"/>
       <c r="G94" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5691,7 +5695,7 @@
         <v>153</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="C95" s="94"/>
       <c r="D95" s="116" t="s">
@@ -5700,7 +5704,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="25"/>
       <c r="G95" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5708,16 +5712,16 @@
         <v>153</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="C96" s="94"/>
       <c r="D96" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="25"/>
       <c r="G96" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5725,7 +5729,7 @@
         <v>153</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C97" s="94"/>
       <c r="D97" s="116" t="s">
@@ -5734,7 +5738,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="25"/>
       <c r="G97" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5742,7 +5746,7 @@
         <v>153</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C98" s="94"/>
       <c r="D98" s="116" t="s">
@@ -5751,7 +5755,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="25"/>
       <c r="G98" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5759,67 +5763,65 @@
         <v>153</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C99" s="94"/>
       <c r="D99" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="37" t="s">
-        <v>75</v>
-      </c>
+      <c r="E99" s="37"/>
       <c r="F99" s="25"/>
       <c r="G99" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="94"/>
+      <c r="D100" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="25"/>
+      <c r="G100" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="56.25">
-      <c r="A100" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="D100" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="E100" s="46"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="37.5">
+    <row r="101" spans="1:7" ht="54">
       <c r="A101" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B101" s="66" t="s">
-        <v>124</v>
+      <c r="B101" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C101" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D101" s="124" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="75">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="83" t="s">
         <v>155</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C102" s="99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D102" s="124" t="s">
         <v>199</v>
@@ -5827,18 +5829,18 @@
       <c r="E102" s="46"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="56.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="54">
       <c r="A103" s="83" t="s">
         <v>155</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="95" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="C103" s="99" t="s">
+        <v>159</v>
       </c>
       <c r="D103" s="124" t="s">
         <v>199</v>
@@ -5846,26 +5848,26 @@
       <c r="E103" s="46"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="54">
       <c r="A104" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="E104" s="20"/>
+      <c r="B104" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="46"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5873,10 +5875,10 @@
         <v>155</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D105" s="116" t="s">
         <v>200</v>
@@ -5884,7 +5886,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5892,10 +5894,10 @@
         <v>155</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="116" t="s">
         <v>200</v>
@@ -5903,7 +5905,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5911,90 +5913,90 @@
         <v>155</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D107" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="B108" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="48">
+      <c r="A109" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="94" t="s">
+      <c r="C109" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="D108" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E108" s="47" t="s">
+      <c r="D109" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="F108" s="25"/>
-      <c r="G108" s="6">
+      <c r="F109" s="25"/>
+      <c r="G109" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="75">
-      <c r="A109" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="E109" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="F109" s="18"/>
-      <c r="G109" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="54">
       <c r="A110" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B110" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D110" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="6"/>
+      <c r="B110" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="F110" s="18"/>
       <c r="G110" s="6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="97" t="s">
-        <v>166</v>
+      <c r="B111" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="92" t="s">
+        <v>165</v>
       </c>
       <c r="D111" s="116" t="s">
         <v>200</v>
@@ -6002,18 +6004,18 @@
       <c r="E111" s="20"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="72">
       <c r="A112" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" s="92" t="s">
-        <v>167</v>
+      <c r="B112" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="97" t="s">
+        <v>166</v>
       </c>
       <c r="D112" s="116" t="s">
         <v>200</v>
@@ -6021,26 +6023,26 @@
       <c r="E112" s="20"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="37.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="84" t="s">
         <v>163</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="97" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="C113" s="92" t="s">
+        <v>167</v>
       </c>
       <c r="D113" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6048,18 +6050,18 @@
         <v>163</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C114" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D114" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6067,10 +6069,10 @@
         <v>163</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C115" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D115" s="116" t="s">
         <v>200</v>
@@ -6078,7 +6080,7 @@
       <c r="E115" s="20"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6086,18 +6088,18 @@
         <v>163</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C116" s="97" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="D116" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6105,10 +6107,10 @@
         <v>163</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C117" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D117" s="116" t="s">
         <v>199</v>
@@ -6116,7 +6118,7 @@
       <c r="E117" s="20"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6124,10 +6126,10 @@
         <v>163</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C118" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D118" s="116" t="s">
         <v>199</v>
@@ -6135,7 +6137,7 @@
       <c r="E118" s="20"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6143,10 +6145,10 @@
         <v>163</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C119" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D119" s="116" t="s">
         <v>199</v>
@@ -6154,7 +6156,7 @@
       <c r="E119" s="20"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6162,10 +6164,10 @@
         <v>163</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C120" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D120" s="116" t="s">
         <v>199</v>
@@ -6173,26 +6175,26 @@
       <c r="E120" s="20"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="92" t="s">
-        <v>84</v>
+      <c r="B121" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="D121" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6200,10 +6202,10 @@
         <v>163</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C122" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D122" s="116" t="s">
         <v>200</v>
@@ -6211,7 +6213,7 @@
       <c r="E122" s="20"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6219,10 +6221,10 @@
         <v>163</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C123" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D123" s="116" t="s">
         <v>200</v>
@@ -6230,7 +6232,7 @@
       <c r="E123" s="20"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6238,117 +6240,117 @@
         <v>163</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C124" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D124" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="37.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>6</v>
+      <c r="B125" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="C125" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="114" t="s">
-        <v>200</v>
+        <v>87</v>
+      </c>
+      <c r="D125" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="20"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="28">
+      <c r="A127" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="94" t="s">
+      <c r="C127" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="D126" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E126" s="24" t="s">
+      <c r="D127" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="F126" s="25"/>
-      <c r="G126" s="6">
+      <c r="F127" s="25"/>
+      <c r="G127" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="56.25">
-      <c r="A127" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B127" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D127" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="E127" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="6">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="37.5">
+    <row r="128" spans="1:7" ht="54">
       <c r="A128" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B128" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="D128" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="E128" s="49"/>
-      <c r="F128" s="13"/>
+      <c r="B128" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="F128" s="18"/>
       <c r="G128" s="6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="36">
       <c r="A129" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="57" t="s">
-        <v>120</v>
+      <c r="B129" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="C129" s="97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" s="125" t="s">
-        <v>200</v>
-      </c>
-      <c r="E129" s="50"/>
+        <v>199</v>
+      </c>
+      <c r="E129" s="49"/>
       <c r="F129" s="13"/>
       <c r="G129" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6356,10 +6358,10 @@
         <v>174</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C130" s="97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D130" s="125" t="s">
         <v>200</v>
@@ -6367,37 +6369,37 @@
       <c r="E130" s="50"/>
       <c r="F130" s="13"/>
       <c r="G130" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="56.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="78" t="s">
         <v>174</v>
       </c>
       <c r="B131" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C131" s="97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D131" s="125" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E131" s="50"/>
       <c r="F131" s="13"/>
       <c r="G131" s="6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="36">
       <c r="A132" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="56" t="s">
-        <v>55</v>
+      <c r="B132" s="57" t="s">
+        <v>181</v>
       </c>
       <c r="C132" s="97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D132" s="125" t="s">
         <v>199</v>
@@ -6405,7 +6407,7 @@
       <c r="E132" s="50"/>
       <c r="F132" s="13"/>
       <c r="G132" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6413,10 +6415,10 @@
         <v>174</v>
       </c>
       <c r="B133" s="56" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="C133" s="97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D133" s="125" t="s">
         <v>199</v>
@@ -6424,7 +6426,7 @@
       <c r="E133" s="50"/>
       <c r="F133" s="13"/>
       <c r="G133" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6432,10 +6434,10 @@
         <v>174</v>
       </c>
       <c r="B134" s="56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C134" s="97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D134" s="125" t="s">
         <v>199</v>
@@ -6443,56 +6445,56 @@
       <c r="E134" s="50"/>
       <c r="F134" s="13"/>
       <c r="G134" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B135" s="57" t="s">
-        <v>188</v>
+      <c r="B135" s="56" t="s">
+        <v>186</v>
       </c>
       <c r="C135" s="97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D135" s="125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E135" s="50"/>
       <c r="F135" s="13"/>
       <c r="G135" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="56.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="56" t="s">
-        <v>190</v>
+      <c r="B136" s="57" t="s">
+        <v>188</v>
       </c>
       <c r="C136" s="97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D136" s="125" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="13"/>
       <c r="G136" s="6">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="93.75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="36">
       <c r="A137" s="78" t="s">
         <v>174</v>
       </c>
       <c r="B137" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C137" s="97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D137" s="125" t="s">
         <v>199</v>
@@ -6500,18 +6502,18 @@
       <c r="E137" s="50"/>
       <c r="F137" s="13"/>
       <c r="G137" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="72">
       <c r="A138" s="78" t="s">
         <v>174</v>
       </c>
       <c r="B138" s="56" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="C138" s="97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D138" s="125" t="s">
         <v>199</v>
@@ -6519,7 +6521,7 @@
       <c r="E138" s="50"/>
       <c r="F138" s="13"/>
       <c r="G138" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6527,10 +6529,10 @@
         <v>174</v>
       </c>
       <c r="B139" s="56" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C139" s="97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D139" s="125" t="s">
         <v>199</v>
@@ -6538,26 +6540,26 @@
       <c r="E139" s="50"/>
       <c r="F139" s="13"/>
       <c r="G139" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C140" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D140" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="E140" s="20"/>
-      <c r="F140" s="6"/>
+      <c r="B140" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E140" s="50"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6565,10 +6567,10 @@
         <v>174</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C141" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D141" s="116" t="s">
         <v>200</v>
@@ -6576,7 +6578,7 @@
       <c r="E141" s="20"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6584,10 +6586,10 @@
         <v>174</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C142" s="92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D142" s="116" t="s">
         <v>200</v>
@@ -6595,7 +6597,7 @@
       <c r="E142" s="20"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6603,147 +6605,147 @@
         <v>174</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C143" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D143" s="116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B144" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C144" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D144" s="125" t="s">
-        <v>200</v>
-      </c>
-      <c r="E144" s="50"/>
-      <c r="F144" s="13"/>
+      <c r="B144" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C144" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D144" s="116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E144" s="20"/>
+      <c r="F144" s="6"/>
       <c r="G144" s="6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="37.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D145" s="114" t="s">
+      <c r="B145" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C145" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D145" s="125" t="s">
         <v>200</v>
       </c>
       <c r="E145" s="50"/>
       <c r="F145" s="13"/>
       <c r="G145" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B146" s="60" t="s">
+      <c r="B146" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="E146" s="50"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="42">
+      <c r="A147" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="94" t="s">
+      <c r="C147" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D146" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E146" s="24" t="s">
+      <c r="D147" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E147" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="F146" s="25"/>
-      <c r="G146" s="6">
+      <c r="F147" s="25"/>
+      <c r="G147" s="6">
         <v>141</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B147" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="6">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="38.25">
+    <row r="148" spans="1:7" ht="25">
       <c r="A148" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B148" s="67" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C148" s="100" t="s">
-        <v>434</v>
+        <v>26</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="4"/>
+      <c r="E148" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="37">
       <c r="A149" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B149" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C149" s="101" t="s">
-        <v>427</v>
+      <c r="B149" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="100" t="s">
+        <v>434</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="25">
       <c r="A150" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="C150" s="101" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>200</v>
@@ -6751,18 +6753,18 @@
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="25">
       <c r="A151" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C151" s="101" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>200</v>
@@ -6770,37 +6772,37 @@
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="75.75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="25">
       <c r="A152" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B152" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" s="100" t="s">
-        <v>377</v>
+      <c r="B152" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C152" s="101" t="s">
+        <v>429</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="38.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="55">
       <c r="A153" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B153" s="67" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C153" s="100" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>11</v>
@@ -6808,153 +6810,153 @@
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="6">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="37">
       <c r="A154" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B154" s="69" t="s">
-        <v>19</v>
+      <c r="B154" s="67" t="s">
+        <v>17</v>
       </c>
       <c r="C154" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="57">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="25">
       <c r="A155" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B155" s="67" t="s">
-        <v>2</v>
+      <c r="B155" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="C155" s="100" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="55">
       <c r="A156" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B156" s="67" t="s">
-        <v>389</v>
+        <v>2</v>
       </c>
       <c r="C156" s="100" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="25">
       <c r="A157" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B157" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="92" t="s">
-        <v>31</v>
+        <v>389</v>
+      </c>
+      <c r="C157" s="100" t="s">
+        <v>390</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="38.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="25">
       <c r="A158" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B158" s="67" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C158" s="92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="5"/>
       <c r="G158" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="25">
       <c r="A159" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B159" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C159" s="95" t="s">
-        <v>41</v>
+      <c r="B159" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="92" t="s">
+        <v>33</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="7"/>
-      <c r="F159" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E159" s="6"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="6">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="25">
       <c r="A160" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B160" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="92" t="s">
-        <v>34</v>
+      <c r="B160" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="95" t="s">
+        <v>41</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E160" s="6"/>
-      <c r="F160" s="5"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G160" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="38.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="25">
       <c r="A161" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B161" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C161" s="92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>9</v>
@@ -6962,56 +6964,56 @@
       <c r="E161" s="6"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="38.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="25">
       <c r="A162" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B162" s="67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C162" s="92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="57">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="25">
       <c r="A163" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B163" s="67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C163" s="92" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="5"/>
       <c r="G163" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="37">
       <c r="A164" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B164" s="67" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="C164" s="92" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>9</v>
@@ -7019,18 +7021,18 @@
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="25">
       <c r="A165" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C165" s="92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>9</v>
@@ -7038,176 +7040,174 @@
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="38.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="25">
       <c r="A166" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B166" s="67" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="C166" s="92" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="94.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="37">
       <c r="A167" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C167" s="92" t="s">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>426</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="B168" s="71" t="s">
-        <v>7</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="73">
+      <c r="A168" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" s="67" t="s">
+        <v>18</v>
       </c>
       <c r="C168" s="92" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="F168" s="6"/>
+      <c r="E168" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F168" s="5"/>
       <c r="G168" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="25">
       <c r="A169" s="86" t="s">
         <v>357</v>
       </c>
       <c r="B169" s="71" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C169" s="92" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E169" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="38.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="25">
       <c r="A170" s="86" t="s">
         <v>357</v>
       </c>
       <c r="B170" s="71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C170" s="92" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E170" s="6"/>
+      <c r="E170" s="17"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="38.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="37">
       <c r="A171" s="86" t="s">
         <v>357</v>
       </c>
       <c r="B171" s="71" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="C171" s="92" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="37">
       <c r="A172" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="B172" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="C172" s="100" t="s">
-        <v>390</v>
+      <c r="B172" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="92" t="s">
+        <v>391</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E172" s="4"/>
-      <c r="F172" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
       <c r="G172" s="6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="25">
       <c r="A173" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="B173" s="71" t="s">
-        <v>360</v>
-      </c>
-      <c r="C173" s="92" t="s">
-        <v>361</v>
+      <c r="B173" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C173" s="100" t="s">
+        <v>390</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E173" s="4"/>
+      <c r="F173" s="5"/>
       <c r="G173" s="6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="25">
       <c r="A174" s="86" t="s">
         <v>357</v>
       </c>
       <c r="B174" s="71" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C174" s="92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>200</v>
@@ -7217,62 +7217,62 @@
         <v>37</v>
       </c>
       <c r="G174" s="6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="76.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="25">
       <c r="A175" s="86" t="s">
         <v>357</v>
       </c>
       <c r="B175" s="71" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="C175" s="92" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E175" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G175" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="87" t="s">
-        <v>381</v>
-      </c>
-      <c r="B176" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C176" s="102" t="s">
-        <v>384</v>
-      </c>
-      <c r="D176" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="E176" s="6"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="58">
+      <c r="A176" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="C176" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="F176" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G176" s="6">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="25">
       <c r="A177" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="B177" s="73" t="s">
-        <v>360</v>
+      <c r="B177" s="72" t="s">
+        <v>20</v>
       </c>
       <c r="C177" s="102" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D177" s="126" t="s">
         <v>200</v>
@@ -7282,79 +7282,79 @@
         <v>37</v>
       </c>
       <c r="G177" s="6">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="38.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="25">
       <c r="A178" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="B178" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C178" s="92" t="s">
-        <v>385</v>
+      <c r="B178" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" s="102" t="s">
+        <v>382</v>
       </c>
       <c r="D178" s="126" t="s">
         <v>200</v>
       </c>
       <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G178" s="6">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="46.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="37">
       <c r="A179" s="87" t="s">
         <v>381</v>
       </c>
       <c r="B179" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="C179" s="102" t="s">
-        <v>386</v>
+        <v>21</v>
+      </c>
+      <c r="C179" s="92" t="s">
+        <v>385</v>
       </c>
       <c r="D179" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="E179" s="15" t="s">
-        <v>406</v>
-      </c>
+      <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="44">
+      <c r="A180" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="B180" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="C180" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="D180" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6">
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="88" t="s">
-        <v>409</v>
-      </c>
-      <c r="B180" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C180" s="103" t="s">
-        <v>384</v>
-      </c>
-      <c r="D180" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="E180" s="53"/>
-      <c r="F180" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G180" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="25">
       <c r="A181" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="B181" s="75" t="s">
-        <v>360</v>
+      <c r="B181" s="74" t="s">
+        <v>20</v>
       </c>
       <c r="C181" s="103" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D181" s="127" t="s">
         <v>200</v>
@@ -7364,174 +7364,176 @@
         <v>37</v>
       </c>
       <c r="G181" s="6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="38.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="25">
       <c r="A182" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="B182" s="74" t="s">
-        <v>21</v>
+      <c r="B182" s="75" t="s">
+        <v>360</v>
       </c>
       <c r="C182" s="103" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D182" s="127" t="s">
         <v>200</v>
       </c>
       <c r="E182" s="53"/>
-      <c r="F182" s="53"/>
+      <c r="F182" s="53" t="s">
+        <v>37</v>
+      </c>
       <c r="G182" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="37">
       <c r="A183" s="88" t="s">
         <v>409</v>
       </c>
       <c r="B183" s="74" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="C183" s="103" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="D183" s="127" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E183" s="53"/>
       <c r="F183" s="53"/>
       <c r="G183" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="46.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="25">
       <c r="A184" s="88" t="s">
         <v>409</v>
       </c>
       <c r="B184" s="74" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C184" s="103" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="D184" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="E184" s="54" t="s">
-        <v>433</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E184" s="53"/>
       <c r="F184" s="53"/>
       <c r="G184" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="44">
+      <c r="A185" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B185" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D185" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="F185" s="53"/>
+      <c r="G185" s="6">
         <v>179</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="89" t="s">
-        <v>387</v>
-      </c>
-      <c r="B185" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="104" t="s">
-        <v>405</v>
-      </c>
-      <c r="D185" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="E185" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="25">
       <c r="A186" s="89" t="s">
         <v>387</v>
       </c>
       <c r="B186" s="76" t="s">
-        <v>392</v>
-      </c>
-      <c r="C186" s="92" t="s">
-        <v>403</v>
-      </c>
-      <c r="D186" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C186" s="104" t="s">
+        <v>405</v>
+      </c>
+      <c r="D186" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="25">
       <c r="A187" s="89" t="s">
         <v>387</v>
       </c>
       <c r="B187" s="76" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C187" s="92" t="s">
-        <v>393</v>
-      </c>
-      <c r="D187" s="128" t="s">
-        <v>399</v>
+        <v>403</v>
+      </c>
+      <c r="D187" s="129" t="s">
+        <v>10</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="25">
       <c r="A188" s="89" t="s">
         <v>387</v>
       </c>
       <c r="B188" s="76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C188" s="92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D188" s="128" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="38.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="25">
       <c r="A189" s="89" t="s">
         <v>387</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C189" s="92" t="s">
-        <v>400</v>
-      </c>
-      <c r="D189" s="129" t="s">
-        <v>8</v>
+        <v>394</v>
+      </c>
+      <c r="D189" s="128" t="s">
+        <v>200</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="37">
       <c r="A190" s="89" t="s">
         <v>387</v>
       </c>
       <c r="B190" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C190" s="92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D190" s="129" t="s">
         <v>8</v>
@@ -7539,100 +7541,100 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="38.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="25">
       <c r="A191" s="89" t="s">
         <v>387</v>
       </c>
-      <c r="B191" s="72" t="s">
-        <v>21</v>
+      <c r="B191" s="76" t="s">
+        <v>398</v>
       </c>
       <c r="C191" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="D191" s="126" t="s">
-        <v>200</v>
+        <v>401</v>
+      </c>
+      <c r="D191" s="129" t="s">
+        <v>8</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="31.5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="37">
       <c r="A192" s="89" t="s">
         <v>387</v>
       </c>
-      <c r="B192" s="71" t="s">
+      <c r="B192" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D192" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="30">
+      <c r="A193" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C192" s="92" t="s">
+      <c r="C193" s="92" t="s">
         <v>402</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E192" s="15" t="s">
+      <c r="D193" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E193" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F193" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G193" s="6">
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="88" t="s">
-        <v>415</v>
-      </c>
-      <c r="B193" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="D193" s="130" t="s">
-        <v>200</v>
-      </c>
-      <c r="E193" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="38.25">
+    <row r="194" spans="1:7" ht="25">
       <c r="A194" s="88" t="s">
         <v>415</v>
       </c>
       <c r="B194" s="76" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C194" s="92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D194" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="E194" s="6"/>
+      <c r="E194" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="37">
       <c r="A195" s="88" t="s">
         <v>415</v>
       </c>
-      <c r="B195" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C195" s="103" t="s">
-        <v>424</v>
+      <c r="B195" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="92" t="s">
+        <v>417</v>
       </c>
       <c r="D195" s="130" t="s">
         <v>200</v>
@@ -7640,136 +7642,136 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="25">
       <c r="A196" s="88" t="s">
         <v>415</v>
       </c>
-      <c r="B196" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C196" s="92" t="s">
-        <v>418</v>
+      <c r="B196" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C196" s="103" t="s">
+        <v>424</v>
       </c>
       <c r="D196" s="130" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="25">
       <c r="A197" s="88" t="s">
         <v>415</v>
       </c>
       <c r="B197" s="76" t="s">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="C197" s="92" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D197" s="130" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="38.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="25">
       <c r="A198" s="88" t="s">
         <v>415</v>
       </c>
       <c r="B198" s="76" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D198" s="130" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="31.5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="37">
       <c r="A199" s="88" t="s">
         <v>415</v>
       </c>
       <c r="B199" s="76" t="s">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="C199" s="92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D199" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E199" s="15" t="s">
-        <v>437</v>
-      </c>
+      <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="107" t="s">
-        <v>435</v>
-      </c>
-      <c r="B200" s="67" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="30">
+      <c r="A200" s="88" t="s">
+        <v>415</v>
+      </c>
+      <c r="B200" s="76" t="s">
+        <v>2</v>
       </c>
       <c r="C200" s="92" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D200" s="130" t="s">
-        <v>200</v>
-      </c>
-      <c r="E200" s="17" t="s">
-        <v>425</v>
+        <v>11</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>437</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="B201" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C201" s="103" t="s">
-        <v>447</v>
+      <c r="B201" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="92" t="s">
+        <v>436</v>
       </c>
       <c r="D201" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="E201" s="6"/>
+      <c r="E201" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="94.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="B202" s="67" t="s">
-        <v>438</v>
-      </c>
-      <c r="C202" s="92" t="s">
-        <v>441</v>
+      <c r="B202" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="103" t="s">
+        <v>447</v>
       </c>
       <c r="D202" s="130" t="s">
         <v>200</v>
@@ -7777,118 +7779,118 @@
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="91">
       <c r="A203" s="107" t="s">
         <v>435</v>
       </c>
       <c r="B203" s="67" t="s">
-        <v>55</v>
+        <v>438</v>
       </c>
       <c r="C203" s="92" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D203" s="130" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="B204" s="76" t="s">
-        <v>419</v>
+      <c r="B204" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="C204" s="92" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D204" s="130" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="36" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="107" t="s">
         <v>435</v>
       </c>
-      <c r="B205" s="67" t="s">
-        <v>2</v>
+      <c r="B205" s="76" t="s">
+        <v>419</v>
       </c>
       <c r="C205" s="92" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D205" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E205" s="15" t="s">
-        <v>437</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="108" t="s">
-        <v>442</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="36" customHeight="1">
+      <c r="A206" s="107" t="s">
+        <v>435</v>
       </c>
       <c r="B206" s="67" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C206" s="92" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D206" s="130" t="s">
-        <v>200</v>
-      </c>
-      <c r="E206" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>437</v>
+      </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="B207" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C207" s="103" t="s">
-        <v>446</v>
+      <c r="B207" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="92" t="s">
+        <v>443</v>
       </c>
       <c r="D207" s="130" t="s">
         <v>200</v>
+      </c>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6">
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="B208" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C208" s="92" t="s">
-        <v>444</v>
+      <c r="B208" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C208" s="103" t="s">
+        <v>446</v>
       </c>
       <c r="D208" s="130" t="s">
-        <v>399</v>
-      </c>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -7896,24 +7898,43 @@
         <v>442</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C209" s="92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D209" s="130" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B210" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="D210" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G175"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7923,20 +7944,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
@@ -8024,42 +8045,42 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8144,39 +8165,39 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -8253,30 +8274,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8325,16 +8346,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8398,27 +8419,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -9144,7 +9165,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30">
+    <row r="43" spans="1:5">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -9161,7 +9182,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -9343,26 +9364,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
@@ -9399,27 +9420,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
@@ -9459,36 +9480,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -9555,36 +9576,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -9651,22 +9672,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
+    <row r="1" spans="1:20" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
